--- a/base_de_dados/base_de_dados_nova/DRE - 2025.xlsx
+++ b/base_de_dados/base_de_dados_nova/DRE - 2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.cruz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.cruz\Downloads\Projetos\projeto_dre_2025\projeto-dre-2025\base_de_dados\base_de_dados_nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F31ACB-082C-4278-A2E4-B583EF4B15BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940DBDC6-E515-4D65-8981-4DD1B38B838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{77C1BCBE-F534-4493-89CC-2AB2F0DD16A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{77C1BCBE-F534-4493-89CC-2AB2F0DD16A4}"/>
   </bookViews>
   <sheets>
     <sheet name="DRE - 2025" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Real 2025</t>
   </si>
@@ -64,13 +64,100 @@
   </si>
   <si>
     <t>(-) conta</t>
+  </si>
+  <si>
+    <t>mês-ano</t>
+  </si>
+  <si>
+    <t>código_conta</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>orçado</t>
+  </si>
+  <si>
+    <t>diretoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filial </t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>pacote(conta contabil)</t>
+  </si>
+  <si>
+    <t>CONTA FINAN</t>
+  </si>
+  <si>
+    <t>CONTA CONTABIL WINTHOR</t>
+  </si>
+  <si>
+    <t>CONTA CONTABIL CONSINCO</t>
+  </si>
+  <si>
+    <t>PACOTE(agr. Contas contab.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc winthor </t>
+  </si>
+  <si>
+    <t>cc consinco</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Diretoria</t>
+  </si>
+  <si>
+    <t>Filial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real </t>
+  </si>
+  <si>
+    <t>Orçado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedir para thiago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acompanhar o relatório de jan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatorio de nov </t>
+  </si>
+  <si>
+    <t>depara</t>
+  </si>
+  <si>
+    <t>no relatório anterior</t>
+  </si>
+  <si>
+    <t>depara arq julia</t>
+  </si>
+  <si>
+    <t>verificar alteração nos códigos</t>
+  </si>
+  <si>
+    <t>relatório financeiro</t>
+  </si>
+  <si>
+    <t>base consolidada</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,17 +258,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,322 +602,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F1B19E-DA16-484E-8791-37D0EC74BA66}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+    <row r="4" spans="1:6" ht="23.4" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <f>(B4+B5+B6)</f>
+    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <f>(B6+B7+B8)</f>
         <v>9</v>
       </c>
-      <c r="C3" s="4">
-        <f>(C4+C5+C6)</f>
+      <c r="C5" s="3">
+        <f>(C6+C7+C8)</f>
         <v>30</v>
       </c>
-      <c r="D3" s="4">
-        <f>(C3-B3)</f>
+      <c r="D5" s="3">
+        <f>(C5-B5)</f>
         <v>21</v>
       </c>
-      <c r="E3" s="4">
-        <f>(E4+E5+E6)</f>
+      <c r="E5" s="3">
+        <f>(E6+E7+E8)</f>
         <v>21</v>
       </c>
-      <c r="F3" s="4">
-        <f>(B3-E3)</f>
+      <c r="F5" s="3">
+        <f>(B5-E5)</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" outlineLevel="1">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="0">(C4-B4)</f>
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D9" si="0">(C6-B6)</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F7" si="1">(B4-E4)</f>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F9" si="1">(B6-E6)</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" outlineLevel="1">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E5" s="3">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" outlineLevel="1">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C8" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" ref="B7:C7" si="2">(B8+B9+B10)</f>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" ref="B9:C9" si="2">(B10+B11+B12)</f>
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" ref="E7" si="3">(E8+E9+E10)</f>
+      <c r="E9" s="3">
+        <f t="shared" ref="E9" si="3">(E10+E11+E12)</f>
         <v>30</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>-21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" outlineLevel="1">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D11" si="4">(C8-B8)</f>
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D13" si="4">(C10-B10)</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" ref="F8:F11" si="5">(B8-E8)</f>
+      <c r="F10" s="2">
+        <f t="shared" ref="F10:F13" si="5">(B10-E10)</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" outlineLevel="1">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="5"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" outlineLevel="1">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="5"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <f t="shared" ref="B11" si="6">(B12+B13+B14)</f>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" ref="B13" si="6">(B14+B15+B16)</f>
         <v>9</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11" si="7">(C12+C13+C14)</f>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13" si="7">(C14+C15+C16)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" ref="E11" si="8">(E12+E13+E14)</f>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13" si="8">(E14+E15+E16)</f>
         <v>39</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="5"/>
         <v>-30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C14" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D14" si="9">(C12-B12)</f>
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D16" si="9">(C14-B14)</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
         <v>12</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" ref="F12:F14" si="10">(B12-E12)</f>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:F16" si="10">(B14-E14)</f>
         <v>-9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E15" s="2">
         <v>13</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="10"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C16" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E16" s="2">
         <v>14</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="10"/>
         <v>-11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -839,12 +924,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F059DDF-D657-4672-8A3B-D2C8C83E7C28}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="13" max="13" width="26.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>